--- a/assets/form/IP/ZHIUR.xlsx
+++ b/assets/form/IP/ZHIUR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\flutterDartProjects\nov1\assets\form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\flutterDartProjects\nov1\assets\form\IP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3BD5EED-B5CC-455F-B19E-AEF896576DBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB94708E-561A-4423-9BFF-F9D004E4AF07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C58BDB4B-5E21-4AD5-A6DF-E60086D8070A}"/>
+    <workbookView xWindow="22905" yWindow="3750" windowWidth="15375" windowHeight="7875" xr2:uid="{C58BDB4B-5E21-4AD5-A6DF-E60086D8070A}"/>
   </bookViews>
   <sheets>
     <sheet name="ZHIUR" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>-</t>
   </si>
@@ -145,6 +145,8 @@
       <rPr>
         <sz val="16"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
       </rPr>
       <t>Объект:</t>
     </r>
@@ -153,6 +155,8 @@
         <b/>
         <sz val="16"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -171,6 +175,8 @@
       <rPr>
         <sz val="16"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
       </rPr>
       <t>Строительство__</t>
     </r>
@@ -180,6 +186,8 @@
         <u/>
         <sz val="16"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
       </rPr>
       <t>ремонт изоляционного покрытия</t>
     </r>
@@ -187,6 +195,8 @@
       <rPr>
         <sz val="16"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
       </rPr>
       <t>___</t>
     </r>
@@ -199,6 +209,8 @@
       <rPr>
         <sz val="16"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">Основание: </t>
     </r>
@@ -207,6 +219,8 @@
         <i/>
         <sz val="16"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
       </rPr>
       <t>ВСН 012-88 (часть II) Миннефтегазстрой</t>
     </r>
@@ -216,6 +230,8 @@
       <rPr>
         <sz val="16"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
       </rPr>
       <t>Объединение, трест_</t>
     </r>
@@ -226,6 +242,8 @@
         <u/>
         <sz val="16"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
       </rPr>
       <t>ООО "Газпром_______</t>
     </r>
@@ -238,6 +256,8 @@
       <rPr>
         <sz val="16"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
       </rPr>
       <t>Министерство____</t>
     </r>
@@ -248,9 +268,14 @@
         <u/>
         <sz val="16"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
       </rPr>
       <t>ПАО "Газпром"________</t>
     </r>
+  </si>
+  <si>
+    <t>Искровой дефектоскоп</t>
   </si>
 </sst>
 </file>
@@ -266,25 +291,35 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <i/>
       <sz val="16"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="16"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -292,23 +327,31 @@
       <u/>
       <sz val="16"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="16"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <i/>
       <u/>
       <sz val="16"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -470,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -481,9 +524,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -499,33 +539,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -543,30 +565,54 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,6 +638,10 @@
       <sheetName val="Справочник дефектов ИП"/>
       <sheetName val="Свод"/>
       <sheetName val="ЗП ГОСТ Р 51164-98"/>
+      <sheetName val="Акт о контроле сплошности"/>
+      <sheetName val="Журнал1"/>
+      <sheetName val="Акт на приемку уложенного тр."/>
+      <sheetName val="Разрешение"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -801,8 +851,21 @@
             <v>Итог Результат</v>
           </cell>
         </row>
+        <row r="46">
+          <cell r="A46"/>
+        </row>
+        <row r="47">
+          <cell r="A47"/>
+        </row>
+        <row r="48">
+          <cell r="A48"/>
+        </row>
       </sheetData>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1110,8 +1173,8 @@
   </sheetPr>
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:W10"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,573 +1205,573 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="33" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
     </row>
     <row r="2" spans="1:23" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="33" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
     </row>
     <row r="3" spans="1:23" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="33" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
     </row>
     <row r="4" spans="1:23" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="33" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="30" t="s">
+      <c r="A5" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="T5" s="31" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="T5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
+      <c r="U5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
     </row>
     <row r="6" spans="1:23" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
     </row>
     <row r="7" spans="1:23" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="24" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="23" t="s">
+      <c r="J7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
+      <c r="L7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:23" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="24" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="23" t="s">
+      <c r="J8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
+      <c r="L8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
     </row>
     <row r="11" spans="1:23" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="T11" s="18" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="T11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="U11" s="18"/>
-      <c r="V11" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="W11" s="17"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="W11" s="32"/>
     </row>
     <row r="12" spans="1:23" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="T12" s="18" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="T12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="V12" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="W12" s="17"/>
+      <c r="V12" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="W12" s="32"/>
     </row>
     <row r="13" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
     </row>
     <row r="14" spans="1:23" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10" t="s">
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10" t="s">
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="15" t="s">
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="10" t="s">
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="12" t="s">
+      <c r="H15" s="27"/>
+      <c r="I15" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10" t="s">
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10" t="s">
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="R15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="S15" s="10" t="s">
+      <c r="S15" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="10" t="s">
+      <c r="T15" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="U15" s="10" t="s">
+      <c r="U15" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="V15" s="10" t="s">
+      <c r="V15" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="10"/>
+      <c r="W15" s="27"/>
     </row>
     <row r="16" spans="1:23" ht="194.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="13" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="11" t="s">
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
     </row>
     <row r="17" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>1</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>2</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>4</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>5</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>6</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>7</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>8</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <v>9</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <v>10</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>11</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <v>12</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="8">
         <v>13</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <v>14</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="7">
         <v>15</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="7">
         <v>16</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="8">
         <v>17</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="7">
         <v>18</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="6">
         <v>19</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="5">
         <v>20</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="5">
         <v>21</v>
       </c>
-      <c r="V17" s="6">
+      <c r="V17" s="5">
         <v>22</v>
       </c>
-      <c r="W17" s="5">
+      <c r="W17" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1727,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
@@ -1780,6 +1843,33 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="J9:W9"/>
+    <mergeCell ref="J10:W10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="W14:W16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
     <mergeCell ref="H6:N6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="T1:W1"/>
@@ -1787,38 +1877,11 @@
     <mergeCell ref="O2:W2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="O3:W3"/>
-    <mergeCell ref="W14:W16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:H15"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="O4:W4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:R5"/>
     <mergeCell ref="U5:W6"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="J9:W9"/>
-    <mergeCell ref="J10:W10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
   </mergeCells>
   <pageMargins left="0.25208333333333299" right="0.25208333333333299" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51181102362204689" footer="0.51181102362204689"/>
   <pageSetup paperSize="9" scale="45" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
